--- a/Lock-In data/EPR Lock-In Data - Vary Amp Freq.xlsx
+++ b/Lock-In data/EPR Lock-In Data - Vary Amp Freq.xlsx
@@ -13,6 +13,9 @@
     <sheet name="3A Amp" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="4V Amp" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="5A Amp" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Test Fri 1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Test Friday End" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Friday Test xx" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -5868,10 +5871,10 @@
       <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>-7.805</v>
       </c>
     </row>
@@ -5879,10 +5882,10 @@
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.08460000000000001</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>-7.715</v>
       </c>
     </row>
@@ -5890,10 +5893,10 @@
       <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.1692</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5" t="n">
         <v>-7.265</v>
       </c>
     </row>
@@ -5901,10 +5904,10 @@
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.2538</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>-7.147</v>
       </c>
     </row>
@@ -5912,10 +5915,10 @@
       <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>0.3384</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>-6.945</v>
       </c>
     </row>
@@ -5923,10 +5926,10 @@
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>0.423</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -5934,10 +5937,10 @@
       <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>0.5076000000000001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5" t="n">
         <v>-5.201</v>
       </c>
     </row>
@@ -5945,10 +5948,10 @@
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.5922000000000002</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>-5.097</v>
       </c>
     </row>
@@ -5956,10 +5959,10 @@
       <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.6768000000000001</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>-4.814</v>
       </c>
     </row>
@@ -5967,10 +5970,10 @@
       <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.7614000000000001</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>-3.477</v>
       </c>
     </row>
@@ -5978,10 +5981,10 @@
       <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.846</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5" t="n">
         <v>-3.045</v>
       </c>
     </row>
@@ -5989,10 +5992,10 @@
       <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="5" t="n">
         <v>0.9306</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5" t="n">
         <v>-2.408</v>
       </c>
     </row>
@@ -6000,10 +6003,10 @@
       <c r="A14" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="5" t="n">
         <v>1.0152</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5" t="n">
         <v>-1.074</v>
       </c>
     </row>
@@ -6011,10 +6014,10 @@
       <c r="A15" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="5" t="n">
         <v>1.0998</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.865</v>
       </c>
     </row>
@@ -6022,10 +6025,10 @@
       <c r="A16" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="5" t="n">
         <v>1.1844</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>3.107</v>
       </c>
     </row>
@@ -6033,10 +6036,10 @@
       <c r="A17" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="5" t="n">
         <v>1.269</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>6.513</v>
       </c>
     </row>
@@ -6044,10 +6047,10 @@
       <c r="A18" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="5" t="n">
         <v>1.29015</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>11.058</v>
       </c>
     </row>
@@ -6055,10 +6058,10 @@
       <c r="A19" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>1.3113</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>13.273</v>
       </c>
     </row>
@@ -6066,10 +6069,10 @@
       <c r="A20" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="5" t="n">
         <v>1.33245</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>15.514</v>
       </c>
     </row>
@@ -6077,10 +6080,10 @@
       <c r="A21" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="5" t="n">
         <v>1.3536</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="5" t="n">
         <v>17.891</v>
       </c>
     </row>
@@ -6088,10 +6091,10 @@
       <c r="A22" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="5" t="n">
         <v>1.37475</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="5" t="n">
         <v>20.74</v>
       </c>
     </row>
@@ -6099,10 +6102,10 @@
       <c r="A23" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="5" t="n">
         <v>1.3959</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="5" t="n">
         <v>23.952</v>
       </c>
     </row>
@@ -6110,10 +6113,10 @@
       <c r="A24" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="5" t="n">
         <v>1.41705</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="5" t="n">
         <v>27.027</v>
       </c>
     </row>
@@ -6121,10 +6124,10 @@
       <c r="A25" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="5" t="n">
         <v>1.4382</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="5" t="n">
         <v>30.187</v>
       </c>
     </row>
@@ -6132,10 +6135,10 @@
       <c r="A26" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="5" t="n">
         <v>1.45935</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="5" t="n">
         <v>32.928</v>
       </c>
     </row>
@@ -6143,10 +6146,10 @@
       <c r="A27" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="5" t="n">
         <v>1.4805</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="5" t="n">
         <v>34.826</v>
       </c>
     </row>
@@ -6154,10 +6157,10 @@
       <c r="A28" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="5" t="n">
         <v>1.50165</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="5" t="n">
         <v>35.109</v>
       </c>
     </row>
@@ -6165,10 +6168,10 @@
       <c r="A29" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="5" t="n">
         <v>1.5228</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="5" t="n">
         <v>34.766</v>
       </c>
     </row>
@@ -6176,10 +6179,10 @@
       <c r="A30" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="5" t="n">
         <v>1.54395</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="5" t="n">
         <v>32.096</v>
       </c>
     </row>
@@ -6187,10 +6190,10 @@
       <c r="A31" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="5" t="n">
         <v>1.5651</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="5" t="n">
         <v>27.305</v>
       </c>
     </row>
@@ -6198,10 +6201,10 @@
       <c r="A32" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="5" t="n">
         <v>1.58625</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="5" t="n">
         <v>20.782</v>
       </c>
     </row>
@@ -6209,10 +6212,10 @@
       <c r="A33" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="5" t="n">
         <v>1.59048</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="5" t="n">
         <v>14.7</v>
       </c>
     </row>
@@ -6220,10 +6223,10 @@
       <c r="A34" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="5" t="n">
         <v>1.59471</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="5" t="n">
         <v>12.141</v>
       </c>
     </row>
@@ -6231,10 +6234,10 @@
       <c r="A35" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="5" t="n">
         <v>1.59894</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="5" t="n">
         <v>10.422</v>
       </c>
     </row>
@@ -6242,10 +6245,10 @@
       <c r="A36" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="5" t="n">
         <v>1.60317</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="5" t="n">
         <v>8.659000000000001</v>
       </c>
     </row>
@@ -6253,10 +6256,10 @@
       <c r="A37" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="5" t="n">
         <v>1.6074</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="5" t="n">
         <v>6.642</v>
       </c>
     </row>
@@ -6264,10 +6267,10 @@
       <c r="A38" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="5" t="n">
         <v>1.61163</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="5" t="n">
         <v>4.784</v>
       </c>
     </row>
@@ -6275,10 +6278,10 @@
       <c r="A39" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="5" t="n">
         <v>1.615860000000001</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="5" t="n">
         <v>2.821</v>
       </c>
     </row>
@@ -6286,10 +6289,10 @@
       <c r="A40" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="5" t="n">
         <v>1.62009</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="5" t="n">
         <v>0.803</v>
       </c>
     </row>
@@ -6297,10 +6300,10 @@
       <c r="A41" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="5" t="n">
         <v>1.62432</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="5" t="n">
         <v>-1.259</v>
       </c>
     </row>
@@ -6308,10 +6311,10 @@
       <c r="A42" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="5" t="n">
         <v>1.62855</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="5" t="n">
         <v>-3.169</v>
       </c>
     </row>
@@ -6319,10 +6322,10 @@
       <c r="A43" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="5" t="n">
         <v>1.63278</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="5" t="n">
         <v>-5.123</v>
       </c>
     </row>
@@ -6330,10 +6333,10 @@
       <c r="A44" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="5" t="n">
         <v>1.637010000000001</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="5" t="n">
         <v>-7.241</v>
       </c>
     </row>
@@ -6341,10 +6344,10 @@
       <c r="A45" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="5" t="n">
         <v>1.64124</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="5" t="n">
         <v>-9.275</v>
       </c>
     </row>
@@ -6352,10 +6355,10 @@
       <c r="A46" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="5" t="n">
         <v>1.64547</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="5" t="n">
         <v>-11.355</v>
       </c>
     </row>
@@ -6363,10 +6366,10 @@
       <c r="A47" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="5" t="n">
         <v>1.6497</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="5" t="n">
         <v>-13.543</v>
       </c>
     </row>
@@ -6374,10 +6377,10 @@
       <c r="A48" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="5" t="n">
         <v>1.653930000000001</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="5" t="n">
         <v>-15.363</v>
       </c>
     </row>
@@ -6385,10 +6388,10 @@
       <c r="A49" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="5" t="n">
         <v>1.658160000000001</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="5" t="n">
         <v>-17.473</v>
       </c>
     </row>
@@ -6396,10 +6399,10 @@
       <c r="A50" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="5" t="n">
         <v>1.66239</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="5" t="n">
         <v>-19.342</v>
       </c>
     </row>
@@ -6407,10 +6410,10 @@
       <c r="A51" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="5" t="n">
         <v>1.66662</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="5" t="n">
         <v>-21.256</v>
       </c>
     </row>
@@ -6418,10 +6421,10 @@
       <c r="A52" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="5" t="n">
         <v>1.67085</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="5" t="n">
         <v>-23.172</v>
       </c>
     </row>
@@ -6429,10 +6432,10 @@
       <c r="A53" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="5" t="n">
         <v>1.675080000000001</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="5" t="n">
         <v>-25.394</v>
       </c>
     </row>
@@ -6440,10 +6443,10 @@
       <c r="A54" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="5" t="n">
         <v>1.679310000000001</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="5" t="n">
         <v>-27.075</v>
       </c>
     </row>
@@ -6451,10 +6454,10 @@
       <c r="A55" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="5" t="n">
         <v>1.68354</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="5" t="n">
         <v>-28.988</v>
       </c>
     </row>
@@ -6462,10 +6465,10 @@
       <c r="A56" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="5" t="n">
         <v>1.68777</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="5" t="n">
         <v>-30.878</v>
       </c>
     </row>
@@ -6473,10 +6476,10 @@
       <c r="A57" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="5" t="n">
         <v>1.692</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="5" t="n">
         <v>-32.68</v>
       </c>
     </row>
@@ -6484,10 +6487,10 @@
       <c r="A58" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="5" t="n">
         <v>1.696230000000001</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="5" t="n">
         <v>-34.241</v>
       </c>
     </row>
@@ -6495,10 +6498,10 @@
       <c r="A59" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="5" t="n">
         <v>1.700460000000001</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="5" t="n">
         <v>-35.361</v>
       </c>
     </row>
@@ -6506,10 +6509,10 @@
       <c r="A60" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="5" t="n">
         <v>1.70469</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="5" t="n">
         <v>-37.164</v>
       </c>
     </row>
@@ -6517,10 +6520,10 @@
       <c r="A61" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="5" t="n">
         <v>1.70892</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="5" t="n">
         <v>-38.94</v>
       </c>
     </row>
@@ -6528,10 +6531,10 @@
       <c r="A62" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="5" t="n">
         <v>1.713150000000001</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="5" t="n">
         <v>-39.805</v>
       </c>
     </row>
@@ -6539,10 +6542,10 @@
       <c r="A63" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="5" t="n">
         <v>1.717380000000001</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="5" t="n">
         <v>-41.137</v>
       </c>
     </row>
@@ -6550,10 +6553,10 @@
       <c r="A64" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="5" t="n">
         <v>1.721610000000001</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="5" t="n">
         <v>-42.988</v>
       </c>
     </row>
@@ -6561,10 +6564,10 @@
       <c r="A65" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="5" t="n">
         <v>1.72584</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="5" t="n">
         <v>-44.214</v>
       </c>
     </row>
@@ -6572,10 +6575,10 @@
       <c r="A66" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="5" t="n">
         <v>1.73007</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="5" t="n">
         <v>-45.108</v>
       </c>
     </row>
@@ -6583,10 +6586,10 @@
       <c r="A67" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="5" t="n">
         <v>1.734300000000001</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="5" t="n">
         <v>-46.28</v>
       </c>
     </row>
@@ -6594,10 +6597,10 @@
       <c r="A68" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="5" t="n">
         <v>1.738530000000001</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="5" t="n">
         <v>-47.094</v>
       </c>
     </row>
@@ -6605,10 +6608,10 @@
       <c r="A69" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="5" t="n">
         <v>1.742760000000001</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="5" t="n">
         <v>-48.37</v>
       </c>
     </row>
@@ -6616,10 +6619,10 @@
       <c r="A70" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="5" t="n">
         <v>1.74699</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="5" t="n">
         <v>-48.904</v>
       </c>
     </row>
@@ -6627,10 +6630,10 @@
       <c r="A71" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="5" t="n">
         <v>1.751220000000001</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="5" t="n">
         <v>-49.248</v>
       </c>
     </row>
@@ -6638,10 +6641,10 @@
       <c r="A72" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="5" t="n">
         <v>1.755450000000001</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="5" t="n">
         <v>-50.229</v>
       </c>
     </row>
@@ -6649,10 +6652,10 @@
       <c r="A73" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="5" t="n">
         <v>1.759680000000001</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="5" t="n">
         <v>-50.881</v>
       </c>
     </row>
@@ -6660,10 +6663,10 @@
       <c r="A74" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="5" t="n">
         <v>1.763910000000001</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="5" t="n">
         <v>-51.045</v>
       </c>
     </row>
@@ -6671,10 +6674,10 @@
       <c r="A75" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="5" t="n">
         <v>1.76814</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="5" t="n">
         <v>-51.323</v>
       </c>
     </row>
@@ -6682,10 +6685,10 @@
       <c r="A76" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="5" t="n">
         <v>1.772370000000001</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="5" t="n">
         <v>-52.202</v>
       </c>
     </row>
@@ -6693,10 +6696,10 @@
       <c r="A77" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="5" t="n">
         <v>1.776600000000001</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="5" t="n">
         <v>-52.363</v>
       </c>
     </row>
@@ -6704,10 +6707,10 @@
       <c r="A78" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="5" t="n">
         <v>1.780830000000001</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="5" t="n">
         <v>-52.254</v>
       </c>
     </row>
@@ -6715,10 +6718,10 @@
       <c r="A79" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="5" t="n">
         <v>1.801980000000001</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="5" t="n">
         <v>-52.924</v>
       </c>
     </row>
@@ -6726,10 +6729,10 @@
       <c r="A80" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="5" t="n">
         <v>1.823130000000001</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="5" t="n">
         <v>-51.297</v>
       </c>
     </row>
@@ -6737,10 +6740,10 @@
       <c r="A81" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="5" t="n">
         <v>1.844280000000001</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="5" t="n">
         <v>-50.595</v>
       </c>
     </row>
@@ -6748,10 +6751,10 @@
       <c r="A82" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="5" t="n">
         <v>1.865430000000001</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="5" t="n">
         <v>-47.251</v>
       </c>
     </row>
@@ -6759,10 +6762,10 @@
       <c r="A83" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="5" t="n">
         <v>1.886580000000001</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="5" t="n">
         <v>-44.621</v>
       </c>
     </row>
@@ -6770,10 +6773,10 @@
       <c r="A84" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="5" t="n">
         <v>1.907730000000001</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="5" t="n">
         <v>-41.413</v>
       </c>
     </row>
@@ -6781,10 +6784,10 @@
       <c r="A85" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="5" t="n">
         <v>1.928880000000001</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="5" t="n">
         <v>-38.475</v>
       </c>
     </row>
@@ -6792,10 +6795,10 @@
       <c r="A86" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="5" t="n">
         <v>1.950030000000001</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="5" t="n">
         <v>-35.828</v>
       </c>
     </row>
@@ -6803,10 +6806,10 @@
       <c r="A87" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="5" t="n">
         <v>1.971180000000001</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="5" t="n">
         <v>-33.179</v>
       </c>
     </row>
@@ -6814,10 +6817,10 @@
       <c r="A88" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="5" t="n">
         <v>1.992330000000001</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="5" t="n">
         <v>-31.097</v>
       </c>
     </row>
@@ -6825,10 +6828,10 @@
       <c r="A89" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="5" t="n">
         <v>2.013480000000001</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="5" t="n">
         <v>-29.047</v>
       </c>
     </row>
@@ -6836,10 +6839,10 @@
       <c r="A90" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="5" t="n">
         <v>2.034630000000001</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="5" t="n">
         <v>-27.062</v>
       </c>
     </row>
@@ -6847,10 +6850,10 @@
       <c r="A91" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="5" t="n">
         <v>2.055780000000001</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="5" t="n">
         <v>-25.329</v>
       </c>
     </row>
@@ -6858,10 +6861,10 @@
       <c r="A92" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="5" t="n">
         <v>2.076930000000001</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="5" t="n">
         <v>-24.277</v>
       </c>
     </row>
@@ -6869,10 +6872,10 @@
       <c r="A93" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="5" t="n">
         <v>2.098080000000001</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="5" t="n">
         <v>-23.053</v>
       </c>
     </row>
@@ -6880,10 +6883,10 @@
       <c r="A94" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="5" t="n">
         <v>2.119230000000001</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="5" t="n">
         <v>-22.092</v>
       </c>
     </row>
@@ -6891,10 +6894,10 @@
       <c r="A95" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="5" t="n">
         <v>2.140380000000001</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="5" t="n">
         <v>-21.14</v>
       </c>
     </row>
@@ -6902,10 +6905,10 @@
       <c r="A96" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="5" t="n">
         <v>2.161530000000001</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="5" t="n">
         <v>-20.594</v>
       </c>
     </row>
@@ -6913,10 +6916,10 @@
       <c r="A97" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="5" t="n">
         <v>2.182680000000001</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="5" t="n">
         <v>-19.33</v>
       </c>
     </row>
@@ -6924,10 +6927,10 @@
       <c r="A98" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="5" t="n">
         <v>2.203830000000001</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="5" t="n">
         <v>-19.002</v>
       </c>
     </row>
@@ -6935,10 +6938,10 @@
       <c r="A99" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="5" t="n">
         <v>2.224980000000001</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="5" t="n">
         <v>-18.561</v>
       </c>
     </row>
@@ -6946,10 +6949,10 @@
       <c r="A100" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="5" t="n">
         <v>2.309580000000001</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="5" t="n">
         <v>-17.538</v>
       </c>
     </row>
@@ -6957,10 +6960,10 @@
       <c r="A101" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="5" t="n">
         <v>2.394180000000001</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="5" t="n">
         <v>-16.566</v>
       </c>
     </row>
@@ -6968,10 +6971,10 @@
       <c r="A102" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="5" t="n">
         <v>2.478780000000001</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="5" t="n">
         <v>-15.023</v>
       </c>
     </row>
@@ -6979,10 +6982,10 @@
       <c r="A103" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="5" t="n">
         <v>2.563380000000001</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="5" t="n">
         <v>-13.4</v>
       </c>
     </row>
@@ -6990,10 +6993,10 @@
       <c r="A104" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="5" t="n">
         <v>2.647980000000001</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="5" t="n">
         <v>-12.992</v>
       </c>
     </row>
@@ -7001,10 +7004,10 @@
       <c r="A105" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="5" t="n">
         <v>2.732580000000001</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="5" t="n">
         <v>-12.45</v>
       </c>
     </row>
@@ -7012,10 +7015,10 @@
       <c r="A106" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="5" t="n">
         <v>2.817180000000001</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="5" t="n">
         <v>-11.47</v>
       </c>
     </row>
@@ -7023,10 +7026,10 @@
       <c r="A107" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="5" t="n">
         <v>2.901780000000001</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="5" t="n">
         <v>-11.301</v>
       </c>
     </row>
@@ -7034,10 +7037,10 @@
       <c r="A108" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="5" t="n">
         <v>2.986380000000001</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="5" t="n">
         <v>-10.713</v>
       </c>
     </row>
@@ -7045,10 +7048,10 @@
       <c r="A109" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="5" t="n">
         <v>3.070980000000002</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="5" t="n">
         <v>-10.864</v>
       </c>
     </row>
@@ -7056,10 +7059,10 @@
       <c r="A110" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="5" t="n">
         <v>3.155580000000002</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="5" t="n">
         <v>-9.476000000000001</v>
       </c>
     </row>
@@ -7067,10 +7070,10 @@
       <c r="A111" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="5" t="n">
         <v>3.240180000000002</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="5" t="n">
         <v>-9.766999999999999</v>
       </c>
     </row>
@@ -7078,10 +7081,10 @@
       <c r="A112" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="5" t="n">
         <v>3.324780000000002</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="5" t="n">
         <v>-9.846</v>
       </c>
     </row>
@@ -7089,10 +7092,10 @@
       <c r="A113" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="5" t="n">
         <v>3.409380000000002</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="5" t="n">
         <v>-9.109</v>
       </c>
     </row>
@@ -7100,10 +7103,10 @@
       <c r="A114" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="5" t="n">
         <v>3.493980000000002</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="5" t="n">
         <v>-9.154999999999999</v>
       </c>
     </row>
@@ -7111,10 +7114,10 @@
       <c r="A115" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="5" t="n">
         <v>3.578580000000002</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="5" t="n">
         <v>-9.446999999999999</v>
       </c>
     </row>
@@ -7122,10 +7125,10 @@
       <c r="A116" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="5" t="n">
         <v>3.663180000000002</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="5" t="n">
         <v>-8.991</v>
       </c>
     </row>
@@ -7133,10 +7136,10 @@
       <c r="A117" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="5" t="n">
         <v>3.747780000000002</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="5" t="n">
         <v>-9.151</v>
       </c>
     </row>
@@ -7144,10 +7147,10 @@
       <c r="A118" s="6" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="5" t="n">
         <v>3.832380000000002</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="5" t="n">
         <v>-8.741</v>
       </c>
     </row>
@@ -7155,10 +7158,10 @@
       <c r="A119" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="5" t="n">
         <v>3.916980000000002</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="5" t="n">
         <v>-9.090999999999999</v>
       </c>
     </row>
@@ -7166,10 +7169,10 @@
       <c r="A120" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="5" t="n">
         <v>4.001580000000002</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="5" t="n">
         <v>-8.916</v>
       </c>
     </row>
@@ -7177,10 +7180,10 @@
       <c r="A121" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="5" t="n">
         <v>4.086180000000002</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="5" t="n">
         <v>-9.093</v>
       </c>
     </row>
@@ -7188,11 +7191,3404 @@
       <c r="A122" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="5" t="n">
         <v>4.170780000000002</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="5" t="n">
         <v>-8.721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>MagField</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Amplitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.08460000000000001</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.2961000000000001</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.3807</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.4653</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.5075999999999999</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.5498999999999999</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.6345000000000001</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.6768000000000001</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.7191000000000001</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.7614000000000002</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.8037000000000002</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.8460000000000002</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.8883000000000003</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.9306000000000003</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.9729000000000003</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1.0152</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>-5.159040000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>1.0575</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>-0.5140640000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>1.0998</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>-2.34104</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>1.1421</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-2.34104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1.184400000000001</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>-2.34104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1.226700000000001</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>-5.153792</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>1.269000000000001</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>1.311300000000001</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1.353600000000001</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>1.395900000000001</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>1.438200000000001</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>1.480500000000001</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>1.522800000000001</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>1.565100000000001</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>1.607400000000001</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>1.649700000000001</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>1.692000000000001</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>1.734300000000001</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>1.776600000000001</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>1.818900000000001</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>1.861200000000001</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>-0.511648</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>1.903500000000001</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>-1.231648</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>1.945800000000001</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>-2.936464000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>1.988100000000001</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>-0.2868320000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>2.030400000000001</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>-2.766824000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>2.072700000000002</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>-2.936472000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>2.115000000000001</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>2.157300000000001</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>2.199600000000001</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>2.241900000000001</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>2.284200000000001</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>2.326500000000002</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>2.368800000000002</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>2.411100000000002</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>2.453400000000002</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>2.495700000000002</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>2.538000000000002</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>2.580300000000002</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>2.622600000000002</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>2.664900000000002</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>2.707200000000002</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>2.749500000000002</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>2.791800000000002</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>2.834100000000002</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>2.876400000000002</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>2.918700000000002</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>2.961000000000002</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>3.003300000000002</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>3.045600000000002</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>3.087900000000002</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>3.130200000000002</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>3.172500000000002</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>3.214800000000002</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>3.257100000000002</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>3.299400000000002</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>3.341700000000003</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>3.384000000000003</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>3.426300000000003</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>3.468600000000003</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>3.510900000000003</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>3.553200000000003</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>3.595500000000003</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>3.637800000000003</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>3.680100000000003</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>3.722400000000003</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>3.764700000000003</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>3.807000000000003</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>3.849300000000003</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>3.891600000000003</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>3.933900000000003</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>3.976200000000003</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>4.018500000000003</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>4.060800000000003</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>4.103100000000003</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>4.145400000000003</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>4.187700000000003</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>-0.2916720000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>MagField</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Amplitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.08460000000000001</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.2961000000000001</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.3807</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.4653</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.5075999999999999</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.5498999999999999</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.6345000000000001</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.6768000000000001</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.7191000000000001</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.7614000000000002</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.8037000000000002</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.8460000000000002</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.8883000000000003</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.9306000000000003</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.9729000000000003</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1.0152</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>1.0575</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>1.0998</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>1.1421</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1.184400000000001</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1.226700000000001</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>1.269000000000001</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>1.311300000000001</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1.353600000000001</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>1.395900000000001</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>1.438200000000001</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>1.480500000000001</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>1.522800000000001</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>1.565100000000001</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>1.607400000000001</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>1.649700000000001</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>1.692000000000001</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>1.734300000000001</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>1.776600000000001</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>1.818900000000001</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>1.861200000000001</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>1.903500000000001</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>1.945800000000001</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>1.988100000000001</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>2.030400000000001</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>2.072700000000002</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>2.115000000000001</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>2.157300000000001</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>2.199600000000001</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>2.241900000000001</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>2.284200000000001</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>2.326500000000002</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>2.368800000000002</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>2.411100000000002</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>2.453400000000002</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>2.495700000000002</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>2.538000000000002</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>2.580300000000002</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>2.622600000000002</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>2.664900000000002</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>2.707200000000002</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>2.749500000000002</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>2.791800000000002</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>2.834100000000002</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>2.876400000000002</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>2.918700000000002</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>2.961000000000002</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>3.003300000000002</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>3.045600000000002</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>3.087900000000002</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>3.130200000000002</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>3.172500000000002</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>3.214800000000002</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>3.257100000000002</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>3.299400000000002</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>3.341700000000003</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>3.384000000000003</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>3.426300000000003</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>3.468600000000003</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>3.510900000000003</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>3.553200000000003</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>3.595500000000003</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>3.637800000000003</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>3.680100000000003</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>3.722400000000003</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>3.764700000000003</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>3.807000000000003</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>3.849300000000003</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>3.891600000000003</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>3.933900000000003</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>3.976200000000003</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>4.018500000000003</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>4.060800000000003</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>4.103100000000003</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>4.145400000000003</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>4.187700000000003</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>0.005074000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>MagField</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Amplitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03419999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03419999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08460000000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03419999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03419999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03419999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03499999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03499999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2961000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03499999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03455999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3807</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03455999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03455999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4653</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5075999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5498999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6345000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6768000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7191000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7614000000000002</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8037000000000002</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8460000000000002</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8883000000000003</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03445999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9306000000000003</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.03545999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9729000000000003</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03489999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0152</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03489999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0575</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.03489999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0998</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03489999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.1421</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03473999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.184400000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.226700000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.269000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.311300000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.353600000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.395900000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.438200000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.480500000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.522800000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.565100000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.03434</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.607400000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.03509999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.649700000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03509999999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.692000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.03452</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.734300000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03441999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.776600000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03441999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.818900000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.03441999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.861200000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03441999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.903500000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.03441999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.945800000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.988100000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.030400000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.072700000000002</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.115000000000001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.157300000000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.199600000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.241900000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.03503999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.284200000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.326500000000002</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.368800000000002</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.411100000000002</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.453400000000002</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.495700000000002</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.538000000000002</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.580300000000002</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.03423999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.622600000000002</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.03423999999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.664900000000002</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.03423999999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.707200000000002</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.03459999999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.749500000000002</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.03459999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.791800000000002</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.03459999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.834100000000002</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.03459999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.876400000000002</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.918700000000002</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.961000000000002</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.03518</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.003300000000002</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.03458</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.045600000000002</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.03487999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.087900000000002</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.03487999999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.130200000000002</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.172500000000002</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.03477999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.214800000000002</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.257100000000002</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.299400000000002</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.341700000000003</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.384000000000003</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.426300000000003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.468600000000003</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.510900000000003</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.553200000000003</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.595500000000003</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.03447999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.637800000000003</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.03435999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.680100000000003</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.722400000000003</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.764700000000003</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.807000000000003</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.849300000000003</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.891600000000003</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.933900000000003</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.976200000000003</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.018500000000003</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.060800000000003</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.103100000000003</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.145400000000003</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.187700000000003</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.03428</v>
       </c>
     </row>
   </sheetData>

--- a/Lock-In data/EPR Lock-In Data - Vary Amp Freq.xlsx
+++ b/Lock-In data/EPR Lock-In Data - Vary Amp Freq.xlsx
@@ -5,18 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="1V Amp" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="2V Amp" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="3A Amp" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="4V Amp" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="5A Amp" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Test Fri 1" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Test Friday End" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Friday Test xx" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="1V Amp" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2V Amp" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="3A Amp" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="4V Amp" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="5A Amp" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t xml:space="preserve">MagField</t>
   </si>
@@ -75,6 +71,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,11 +130,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1V Amp'!$C$1</c:f>
+              <c:f>'1V Amp'!$C$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -261,11 +258,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1025,17 +1027,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25707650"/>
-        <c:axId val="41214127"/>
+        <c:axId val="26088344"/>
+        <c:axId val="42297205"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25707650"/>
+        <c:axId val="26088344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1052,17 +1054,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41214127"/>
+        <c:crossAx val="42297205"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41214127"/>
+        <c:axId val="42297205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1083,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1094,14 +1100,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25707650"/>
+        <c:crossAx val="26088344"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1137,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1162,7 +1176,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5A Amp'!$C$1</c:f>
+              <c:f>'5A Amp'!$C$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1195,11 +1209,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1959,17 +1978,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32462368"/>
-        <c:axId val="10757518"/>
+        <c:axId val="28515754"/>
+        <c:axId val="13250990"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32462368"/>
+        <c:axId val="28515754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1986,17 +2005,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10757518"/>
+        <c:crossAx val="13250990"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10757518"/>
+        <c:axId val="13250990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2034,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2028,14 +2051,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32462368"/>
+        <c:crossAx val="28515754"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2061,7 +2088,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -2092,9 +2123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2103,7 +2134,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1870920" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2127,9 +2158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2138,7 +2169,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1870920" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2328,29 +2359,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3710,14 +3718,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5060,6 +5068,1369 @@
       </c>
       <c r="C122" s="2" t="n">
         <v>-12.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C122"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>-19.171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>-19.181</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-18.708</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>-16.83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>-15.578</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>-15.033</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.5076</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.5922</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>-12.882</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.6768</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-10.933</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.7614</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-9.174</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>-7.609</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.9306</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>-4.857</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1.0152</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>-1.764</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1.0998</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2.334</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1.1844</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>8.157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>17.592</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1.29015</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1.3113</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>34.401</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1.33245</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>40.176</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1.3536</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>46.432</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1.37475</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>53.805</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1.3959</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>62.504</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1.41705</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>71.735</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1.4382</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>80.349</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1.45935</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>89.133</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1.4805</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>96.831</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1.50165</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>100.786</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1.5228</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>100.918</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1.54395</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>95.648</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1.5651</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>82.203</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>1.58625</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>59.832</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1.59048</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>35.316</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1.59471</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>25.824</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1.59894</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>19.097</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.60317</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>11.849</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1.6074</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>4.718</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>1.61163</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>-2.894</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1.61586</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>-10.41</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.62009</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>-18.279</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1.62432</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>-25.323</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.62855</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>-32.464</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1.63278</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>-40.032</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1.63701</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>-47.944</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1.64124</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>-55.28</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1.64547</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>-62.136</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1.6497</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>-69.601</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>1.65393</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>-76.132</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1.65816</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>-82.565</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>1.66239</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>-89.023</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>1.66662</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>-94.56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>1.67085</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>-99.806</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>1.67508</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>-105.721</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>1.67931</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>-110.411</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>1.68354</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>-114.298</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>1.68777</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>-118.405</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>-122.286</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1.69623</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>-125.071</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>1.70046</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>-127.898</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1.70469</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>-128.796</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1.70892</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>-128.9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1.71315</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>-128.924</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1.71738</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>-129.007</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1.72161</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>-128.971</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1.72584</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>-129.021</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>1.73007</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>-129.019</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1.7343</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>-128.972</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>1.73853</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>-129.013</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>1.74276</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>-128.999</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>1.74699</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>-128.999</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>1.75122</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>-129.043</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>1.75545</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>-129.019</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>1.75968</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>-128.992</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1.76391</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>-128.981</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1.76814</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>-129.005</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>1.77237</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>-128.97</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>1.7766</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>-128.946</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>1.78083</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>-128.947</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>1.80198</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>-128.87</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>1.82313</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>-123.952</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1.84428</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>-115.261</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1.86543</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-106.947</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>1.88658</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>-98.196</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>1.90773</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-90.665</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>1.92888</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-84.319</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1.95003</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-77.938</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>1.97118</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-72.104</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>1.99233</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-68.505</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>2.01348</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-64.111</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>2.03463</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-60.62</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>2.05578</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-57.016</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>2.07693</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-54.962</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>2.09808</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-52.671</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>2.11923</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-50.04</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>2.14038</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-48.407</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>2.16153</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-46.614</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>2.18268</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-44.688</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>2.20383</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-43.102</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>2.22498</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-41.813</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>2.30958</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-40.215</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>2.39418</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-37.131</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>2.47878</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>-34.782</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>2.56338</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-32.027</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>2.64798</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-29.741</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>2.73258</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-28.797</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>2.81718</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-27.147</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>2.90178</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-26.973</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>2.98638</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-26.307</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>3.07098</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-25.002</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>3.15558</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-23.663</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>3.24018</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-23.195</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>3.32478</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-23.071</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>3.40938</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-23.062</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>3.49398</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-22.772</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>3.57858</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-22.239</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>3.66318</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-21.226</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>3.74778</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-21.29</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>3.83238</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-21.126</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>3.91698</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-21.019</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>4.00158</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-21.023</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>4.08618</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-20.701</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>4.17078</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-20.418</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-19.171</v>
+        <v>-6.526</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,7 +6484,7 @@
         <v>0.0846</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-19.181</v>
+        <v>-6.268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,7 +6495,7 @@
         <v>0.1692</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-18.708</v>
+        <v>-5.735</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,7 +6506,7 @@
         <v>0.2538</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-16.83</v>
+        <v>-5.129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +6517,7 @@
         <v>0.3384</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-15.578</v>
+        <v>-5.146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +6528,7 @@
         <v>0.423</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-15.033</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +6539,7 @@
         <v>0.5076</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-13.49</v>
+        <v>-4.154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +6550,7 @@
         <v>0.5922</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-12.882</v>
+        <v>-3.307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +6561,7 @@
         <v>0.6768</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-10.933</v>
+        <v>-3.132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +6572,7 @@
         <v>0.7614</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-9.174</v>
+        <v>-3.012</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,7 +6583,7 @@
         <v>0.846</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-7.609</v>
+        <v>-2.394</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,7 +6594,7 @@
         <v>0.9306</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-4.857</v>
+        <v>-1.203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,7 +6605,7 @@
         <v>1.0152</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-1.764</v>
+        <v>-0.727</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +6616,7 @@
         <v>1.0998</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2.334</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +6627,7 @@
         <v>1.1844</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>8.157</v>
+        <v>2.953</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,7 +6638,7 @@
         <v>1.269</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>17.592</v>
+        <v>5.858</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,7 +6649,7 @@
         <v>1.29015</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>28.19</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,7 +6660,7 @@
         <v>1.3113</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>34.401</v>
+        <v>11.434</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,7 +6671,7 @@
         <v>1.33245</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>40.176</v>
+        <v>13.432</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,7 +6682,7 @@
         <v>1.3536</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>46.432</v>
+        <v>15.925</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,7 +6693,7 @@
         <v>1.37475</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>53.805</v>
+        <v>18.261</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +6704,7 @@
         <v>1.3959</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>62.504</v>
+        <v>20.761</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +6715,7 @@
         <v>1.41705</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>71.735</v>
+        <v>23.714</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,7 +6726,7 @@
         <v>1.4382</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>80.349</v>
+        <v>26.561</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,7 +6737,7 @@
         <v>1.45935</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>89.133</v>
+        <v>29.114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,7 +6748,7 @@
         <v>1.4805</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>96.831</v>
+        <v>31.149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,7 +6759,7 @@
         <v>1.50165</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>100.786</v>
+        <v>32.619</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,7 +6770,7 @@
         <v>1.5228</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>100.918</v>
+        <v>31.245</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,7 +6781,7 @@
         <v>1.54395</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>95.648</v>
+        <v>28.543</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +6792,7 @@
         <v>1.5651</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>82.203</v>
+        <v>23.541</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +6803,7 @@
         <v>1.58625</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>59.832</v>
+        <v>16.567</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,7 +6814,7 @@
         <v>1.59048</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>35.316</v>
+        <v>9.271</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,7 +6825,7 @@
         <v>1.59471</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>25.824</v>
+        <v>6.728</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,7 +6836,7 @@
         <v>1.59894</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>19.097</v>
+        <v>4.825</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +6847,7 @@
         <v>1.60317</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>11.849</v>
+        <v>2.853</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,7 +6858,7 @@
         <v>1.6074</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>4.718</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,7 +6869,7 @@
         <v>1.61163</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-2.894</v>
+        <v>-0.534</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,7 +6880,7 @@
         <v>1.61586</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-10.41</v>
+        <v>-2.834</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +6891,7 @@
         <v>1.62009</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-18.279</v>
+        <v>-5.171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +6902,7 @@
         <v>1.62432</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-25.323</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,7 +6913,7 @@
         <v>1.62855</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-32.464</v>
+        <v>-9.041</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,7 +6924,7 @@
         <v>1.63278</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-40.032</v>
+        <v>-12.12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,7 +6935,7 @@
         <v>1.63701</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-47.944</v>
+        <v>-13.215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,7 +6946,7 @@
         <v>1.64124</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-55.28</v>
+        <v>-16.109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +6957,7 @@
         <v>1.64547</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-62.136</v>
+        <v>-17.405</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,7 +6968,7 @@
         <v>1.6497</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-69.601</v>
+        <v>-20.152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +6979,7 @@
         <v>1.65393</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-76.132</v>
+        <v>-22.371</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,7 +6990,7 @@
         <v>1.65816</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-82.565</v>
+        <v>-22.902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +7001,7 @@
         <v>1.66239</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-89.023</v>
+        <v>-25.765</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +7012,7 @@
         <v>1.66662</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-94.56</v>
+        <v>-26.976</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,7 +7023,7 @@
         <v>1.67085</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-99.806</v>
+        <v>-28.449</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,7 +7034,7 @@
         <v>1.67508</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-105.721</v>
+        <v>-30.777</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,7 +7045,7 @@
         <v>1.67931</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-110.411</v>
+        <v>-31.907</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,7 +7056,7 @@
         <v>1.68354</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-114.298</v>
+        <v>-33.249</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +7067,7 @@
         <v>1.68777</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-118.405</v>
+        <v>-35.06</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +7078,7 @@
         <v>1.692</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-122.286</v>
+        <v>-35.75</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +7089,7 @@
         <v>1.69623</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-125.071</v>
+        <v>-37.694</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,7 +7100,7 @@
         <v>1.70046</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-127.898</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,7 +7111,7 @@
         <v>1.70469</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-128.796</v>
+        <v>-39.555</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +7122,7 @@
         <v>1.70892</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-128.9</v>
+        <v>-39.938</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,7 +7133,7 @@
         <v>1.71315</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-128.924</v>
+        <v>-41.238</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +7144,7 @@
         <v>1.71738</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-129.007</v>
+        <v>-41.211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +7155,7 @@
         <v>1.72161</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-128.971</v>
+        <v>-43.085</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +7166,7 @@
         <v>1.72584</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-129.021</v>
+        <v>-43.03</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +7177,7 @@
         <v>1.73007</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-129.019</v>
+        <v>-43.436</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,7 +7188,7 @@
         <v>1.7343</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-128.972</v>
+        <v>-44.607</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +7199,7 @@
         <v>1.73853</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-129.013</v>
+        <v>-45.019</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,7 +7210,7 @@
         <v>1.74276</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-128.999</v>
+        <v>-45.016</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +7221,7 @@
         <v>1.74699</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-128.999</v>
+        <v>-45.038</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,7 +7232,7 @@
         <v>1.75122</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-129.043</v>
+        <v>-45.046</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +7243,7 @@
         <v>1.75545</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-129.019</v>
+        <v>-45.128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,7 +7254,7 @@
         <v>1.75968</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-128.992</v>
+        <v>-45.082</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +7265,7 @@
         <v>1.76391</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-128.981</v>
+        <v>-45.082</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,7 +7276,7 @@
         <v>1.76814</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-129.005</v>
+        <v>-45.101</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,7 +7287,7 @@
         <v>1.77237</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-128.97</v>
+        <v>-45.046</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,7 +7298,7 @@
         <v>1.7766</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-128.946</v>
+        <v>-44.753</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,7 +7309,7 @@
         <v>1.78083</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-128.947</v>
+        <v>-43.95</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,7 +7320,7 @@
         <v>1.80198</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-128.87</v>
+        <v>-43.143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +7331,7 @@
         <v>1.82313</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-123.952</v>
+        <v>-41.147</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,7 +7342,7 @@
         <v>1.84428</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-115.261</v>
+        <v>-38.654</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,7 +7353,7 @@
         <v>1.86543</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-106.947</v>
+        <v>-35.491</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,7 +7364,7 @@
         <v>1.88658</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-98.196</v>
+        <v>-33.011</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,7 +7375,7 @@
         <v>1.90773</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-90.665</v>
+        <v>-30.341</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,7 +7386,7 @@
         <v>1.92888</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-84.319</v>
+        <v>-27.895</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,7 +7397,7 @@
         <v>1.95003</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-77.938</v>
+        <v>-26.122</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,7 +7408,7 @@
         <v>1.97118</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-72.104</v>
+        <v>-23.997</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,7 +7419,7 @@
         <v>1.99233</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-68.505</v>
+        <v>-22.812</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,7 +7430,7 @@
         <v>2.01348</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-64.111</v>
+        <v>-21.108</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,7 +7441,7 @@
         <v>2.03463</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-60.62</v>
+        <v>-20.148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,7 +7452,7 @@
         <v>2.05578</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-57.016</v>
+        <v>-19.039</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,7 +7463,7 @@
         <v>2.07693</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-54.962</v>
+        <v>-18.798</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,7 +7474,7 @@
         <v>2.09808</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-52.671</v>
+        <v>-17.461</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6114,7 +7485,7 @@
         <v>2.11923</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-50.04</v>
+        <v>-16.701</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,7 +7496,7 @@
         <v>2.14038</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-48.407</v>
+        <v>-15.86</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +7507,7 @@
         <v>2.16153</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-46.614</v>
+        <v>-15.207</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,7 +7518,7 @@
         <v>2.18268</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-44.688</v>
+        <v>-15.002</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,7 +7529,7 @@
         <v>2.20383</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-43.102</v>
+        <v>-14.845</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,7 +7540,7 @@
         <v>2.22498</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-41.813</v>
+        <v>-14.245</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,7 +7551,7 @@
         <v>2.30958</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-40.215</v>
+        <v>-13.338</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,7 +7562,7 @@
         <v>2.39418</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-37.131</v>
+        <v>-12.647</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,7 +7573,7 @@
         <v>2.47878</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-34.782</v>
+        <v>-11.192</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,7 +7584,7 @@
         <v>2.56338</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-32.027</v>
+        <v>-10.832</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,7 +7595,7 @@
         <v>2.64798</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-29.741</v>
+        <v>-9.771</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,7 +7606,7 @@
         <v>2.73258</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-28.797</v>
+        <v>-9.229</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,7 +7617,7 @@
         <v>2.81718</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-27.147</v>
+        <v>-9.173</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +7628,7 @@
         <v>2.90178</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-26.973</v>
+        <v>-9.096</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,7 +7639,7 @@
         <v>2.98638</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-26.307</v>
+        <v>-8.965</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,7 +7650,7 @@
         <v>3.07098</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-25.002</v>
+        <v>-8.497</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +7661,7 @@
         <v>3.15558</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-23.663</v>
+        <v>-7.965</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +7672,7 @@
         <v>3.24018</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-23.195</v>
+        <v>-7.415</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,7 +7683,7 @@
         <v>3.32478</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-23.071</v>
+        <v>-7.244</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,7 +7694,7 @@
         <v>3.40938</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-23.062</v>
+        <v>-7.142</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,7 +7705,7 @@
         <v>3.49398</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-22.772</v>
+        <v>-7.152</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,7 +7716,7 @@
         <v>3.57858</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-22.239</v>
+        <v>-7.138</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,7 +7727,7 @@
         <v>3.66318</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-21.226</v>
+        <v>-7.121</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,7 +7738,7 @@
         <v>3.74778</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>-21.29</v>
+        <v>-7.092</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,7 +7749,7 @@
         <v>3.83238</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-21.126</v>
+        <v>-6.999</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,7 +7760,7 @@
         <v>3.91698</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-21.019</v>
+        <v>-7.021</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,7 +7771,7 @@
         <v>4.00158</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-21.023</v>
+        <v>-7.045</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,7 +7782,7 @@
         <v>4.08618</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-20.701</v>
+        <v>-6.922</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,7 +7793,7 @@
         <v>4.17078</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-20.418</v>
+        <v>-6.698</v>
       </c>
     </row>
   </sheetData>
@@ -6443,1371 +7814,8 @@
   </sheetPr>
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>-6.526</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>-6.268</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.1692</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>-5.735</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>-5.129</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.3384</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>-5.146</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>-4.98</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.5076</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>-4.154</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.5922</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>-3.307</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.6768</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>-3.132</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>-3.012</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>-2.394</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.9306</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>-1.203</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1.0152</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>-0.727</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1.0998</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0.934</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>1.1844</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>2.953</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>5.858</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>1.29015</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>9.48</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>1.3113</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>11.434</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>1.33245</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>13.432</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>1.3536</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>15.925</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>1.37475</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>18.261</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>1.3959</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>20.761</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>1.41705</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>23.714</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>1.4382</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>26.561</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1.45935</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>29.114</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>1.4805</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>31.149</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1.50165</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>32.619</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>1.5228</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>31.245</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>1.54395</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>28.543</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>1.5651</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>23.541</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1.58625</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>16.567</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.59048</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>9.271</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.59471</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>6.728</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.59894</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>4.825</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1.60317</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>2.853</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>1.6074</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0.758</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>1.61163</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>-0.534</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>1.61586</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>-2.834</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1.62009</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>-5.171</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1.62432</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>-6.98</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1.62855</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>-9.041</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1.63278</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>-12.12</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>1.63701</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>-13.215</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>1.64124</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>-16.109</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>1.64547</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>-17.405</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>1.6497</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>-20.152</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>1.65393</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>-22.371</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>1.65816</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>-22.902</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>1.66239</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>-25.765</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>1.66662</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>-26.976</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>1.67085</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>-28.449</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>1.67508</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>-30.777</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>1.67931</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>-31.907</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>1.68354</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>-33.249</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>1.68777</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>-35.06</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>-35.75</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>1.69623</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>-37.694</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>1.70046</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>-38.29</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>1.70469</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>-39.555</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>1.70892</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>-39.938</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>1.71315</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>-41.238</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>1.71738</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>-41.211</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>1.72161</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>-43.085</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>1.72584</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>-43.03</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>1.73007</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>-43.436</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>1.7343</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>-44.607</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>1.73853</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>-45.019</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>1.74276</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>-45.016</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>1.74699</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>-45.038</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>1.75122</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>-45.046</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>1.75545</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>-45.128</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>1.75968</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>-45.082</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>1.76391</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>-45.082</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>1.76814</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>-45.101</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>1.77237</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>-45.046</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>1.7766</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>-44.753</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>1.78083</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-43.95</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>1.80198</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-43.143</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>1.82313</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-41.147</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>1.84428</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-38.654</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>1.86543</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-35.491</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>1.88658</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-33.011</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>1.90773</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-30.341</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>1.92888</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-27.895</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>1.95003</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-26.122</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>1.97118</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-23.997</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>1.99233</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-22.812</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>2.01348</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-21.108</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>2.03463</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-20.148</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>2.05578</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-19.039</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>2.07693</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-18.798</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>2.09808</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-17.461</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>2.11923</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-16.701</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>2.14038</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-15.86</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>2.16153</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-15.207</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>2.18268</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-15.002</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>2.20383</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-14.845</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>2.22498</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-14.245</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>2.30958</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-13.338</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>2.39418</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-12.647</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>2.47878</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>-11.192</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>2.56338</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-10.832</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>2.64798</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-9.771</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>2.73258</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-9.229</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>2.81718</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-9.173</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>2.90178</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-9.096</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>2.98638</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-8.965</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>3.07098</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-8.497</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>3.15558</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-7.965</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>3.24018</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-7.415</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>3.32478</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-7.244</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>3.40938</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-7.142</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>3.49398</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-7.152</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>3.57858</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-7.138</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>3.66318</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-7.121</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>3.74778</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-7.092</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>3.83238</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-6.999</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>3.91698</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-7.021</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>4.00158</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-7.045</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>4.08618</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-6.922</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>4.17078</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-6.698</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C122"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9161,3400 +9169,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.1269</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.1692</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.2961</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.3384</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.3807</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.4653</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.5076</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.5499</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0.5922</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.6345</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.6768</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.7191</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>0.8037</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.8883</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.9306</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.9729</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1.0152</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>-5.15904</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>-0.514064</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1.0998</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>-2.34104</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>1.1421</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>-2.34104</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>1.1844</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>-2.34104</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>1.2267</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>-5.153792</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.3113</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.3536</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.3959</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1.4382</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>1.4805</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>1.5228</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>1.5651</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1.6074</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1.6497</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1.7343</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>1.7766</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>1.8189</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>1.8612</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>-0.511648</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>1.9035</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>-1.231648</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>1.9458</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>-2.936464</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>1.9881</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>-0.286832</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>2.0304</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>-2.766824</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>2.0727</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>-2.936472</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>2.115</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>2.1573</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>2.1996</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>2.2419</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>2.2842</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>2.3265</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>2.3688</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>2.4111</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>2.4534</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>2.4957</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>2.538</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>2.5803</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>2.6226</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>2.6649</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>2.7072</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>2.7495</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>2.7918</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>2.8341</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>2.8764</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>2.9187</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>3.0033</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>3.0456</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>3.0879</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>3.1302</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>3.1725</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>3.2148</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>3.2571</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>3.2994</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>3.3417</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>3.384</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>3.4263</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>3.4686</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>3.5109</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>3.5532</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>3.5955</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>3.6378</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>3.6801</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>3.7224</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>3.7647</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>3.8493</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>3.8916</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>3.9339</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>3.9762</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>4.0185</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>4.0608</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>4.1031</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>4.1454</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>4.1877</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-0.291672</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.1269</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.1692</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0.2961</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0.3384</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.3807</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.4653</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.5076</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.5499</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0.5922</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.6345</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.6768</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.7191</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>0.8037</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.8883</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.9306</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.9729</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1.0152</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1.0998</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>1.1421</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>1.1844</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>1.2267</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.3113</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.3536</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.3959</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1.4382</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>1.4805</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>1.5228</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>1.5651</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1.6074</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1.6497</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1.7343</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>1.7766</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>1.8189</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>1.8612</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>1.9035</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>1.9458</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>1.9881</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>2.0304</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>2.0727</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>2.115</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>2.1573</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>2.1996</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>2.2419</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>2.2842</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>2.3265</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>2.3688</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>2.4111</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>2.4534</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>2.4957</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>2.538</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>2.5803</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>2.6226</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>2.6649</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>2.7072</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>2.7495</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>2.7918</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>2.8341</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>2.8764</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>2.9187</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>3.0033</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>3.0456</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>3.0879</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>3.1302</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>3.1725</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>3.2148</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>3.2571</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>3.2994</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>3.3417</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>3.384</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>3.4263</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>3.4686</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>3.5109</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>3.5532</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>3.5955</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>3.6378</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>3.6801</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>3.7224</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>3.7647</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>3.8493</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>3.8916</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>3.9339</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>3.9762</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>4.0185</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>4.0608</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>4.1031</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>4.1454</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>4.1877</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>0.005074</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.1269</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.1692</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.2961</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.3384</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.03456</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.3807</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.03456</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.03456</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.4653</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5076</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.5499</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.5922</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.6345</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.6768</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.7191</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.8037</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.8883</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.03446</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.9306</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.03546</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.9729</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1.0152</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1.0998</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1.1421</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.03474</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1.1844</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1.2267</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1.3113</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1.3536</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1.3959</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1.4382</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1.4805</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1.5228</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1.5651</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0.03434</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1.6074</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0.0351</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1.6497</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.0351</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0.03452</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1.7343</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.03442</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1.7766</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.03442</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1.8189</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0.03442</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1.8612</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0.03442</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1.9035</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0.03442</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1.9458</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.0352</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1.9881</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0.0348</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>2.0304</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0.0348</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>2.0727</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.0348</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>2.115</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>2.1573</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>2.1996</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>2.2419</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>0.03504</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>2.2842</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>2.3265</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>2.3688</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>2.4111</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>2.4534</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>2.4957</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>2.538</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>2.5803</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>0.03424</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>2.6226</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>0.03424</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>2.6649</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>0.03424</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>2.7072</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>0.0346</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>2.7495</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0.0346</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>2.7918</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>0.0346</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>2.8341</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>0.0346</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>2.8764</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>0.0343</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>2.9187</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.0343</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>0.03518</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>3.0033</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>0.03458</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>3.0456</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>0.03488</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>3.0879</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>0.03488</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>3.1302</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>0.0343</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>3.1725</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>0.03478</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>3.2148</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>3.2571</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>3.2994</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>3.3417</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>3.384</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>3.4263</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>3.4686</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>3.5109</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>3.5532</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>3.5955</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>0.03448</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>3.6378</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>0.03436</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>3.6801</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>3.7224</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <v>3.7647</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <v>3.807</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <v>3.8493</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="0" t="n">
-        <v>3.8916</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>3.9339</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <v>3.9762</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <v>4.0185</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="0" t="n">
-        <v>4.0608</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>4.1031</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <v>4.1454</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <v>4.1877</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>0.03428</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>